--- a/api/notification.xlsx
+++ b/api/notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Just\PycharmProjects\sunshine\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A460036-B6BF-4550-91E6-F7507EC351BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA5411-A516-483A-A933-0B9C92CB0F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="1530" windowWidth="15375" windowHeight="8325" xr2:uid="{A150FA6A-FA24-40B6-BEF1-5D62593BBB2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>message</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>alert_time</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>now</t>
   </si>
   <si>
     <t>3:30am</t>
@@ -440,7 +434,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,41 +460,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>44981</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44981.489583333336</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>44982</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>109264.48914351851</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>44983</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>44981.489583333336</v>
@@ -508,13 +502,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>44984</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>44981.489583333336</v>
@@ -522,27 +516,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>44985</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44981.489583333336</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>44985</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>44982.954861111109</v>
